--- a/data/commodities.xlsx
+++ b/data/commodities.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\McLean Capital Dropbox\Ian McLean\_Website + data + articles\___Real CPI website\_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264908E2-F323-419D-83DC-93CE4EABEDAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3FF3EF-6FD2-4A79-BDF6-7C2518A7A116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1895E427-6F66-416C-BB2E-618F61A67CCD}"/>
   </bookViews>
@@ -440,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FEDFD06-F183-4D18-B31B-F89D14E17C74}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -460,9 +460,17 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
+        <v>45775</v>
+      </c>
+      <c r="B2" s="4">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
         <v>45727</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B3" s="4">
         <v>8.7072382677708768E-2</v>
       </c>
     </row>

--- a/data/commodities.xlsx
+++ b/data/commodities.xlsx
@@ -1,25 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\McLean Capital Dropbox\Ian McLean\_Website + data + articles\___Real CPI website\_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ianmc\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3FF3EF-6FD2-4A79-BDF6-7C2518A7A116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D0CB6A2-0FF4-45AA-B68D-3E80677B9C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1895E427-6F66-416C-BB2E-618F61A67CCD}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="2" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -36,23 +33,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Date</t>
   </si>
   <si>
     <t>Value</t>
   </si>
+  <si>
+    <t>% Change vs Last Year</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="174" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -60,7 +63,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -85,33 +88,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -134,44 +134,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -198,32 +198,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -250,24 +232,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -279,203 +243,758 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="phClr"/>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FEDFD06-F183-4D18-B31B-F89D14E17C74}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="3"/>
+    <col min="1" max="1" width="16.68359375" customWidth="1"/>
+    <col min="3" max="3" width="23.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
-        <v>45775</v>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="5">
+        <v>45748</v>
       </c>
       <c r="B2" s="4">
-        <v>2.3E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>45727</v>
+        <v>162.72999999999999</v>
+      </c>
+      <c r="C2" s="6">
+        <f>(B2/B14-1)*100</f>
+        <v>-4.5011737089201915</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="5">
+        <v>45717</v>
       </c>
       <c r="B3" s="4">
-        <v>8.7072382677708768E-2</v>
-      </c>
+        <v>167.41</v>
+      </c>
+      <c r="C3" s="6">
+        <f t="shared" ref="C3:C39" si="0">(B3/B15-1)*100</f>
+        <v>2.6551385822908946</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="5">
+        <v>45689</v>
+      </c>
+      <c r="B4" s="4">
+        <v>172.01</v>
+      </c>
+      <c r="C4" s="6">
+        <f t="shared" si="0"/>
+        <v>8.4347223097774648</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="5">
+        <v>45658</v>
+      </c>
+      <c r="B5" s="4">
+        <v>172.78</v>
+      </c>
+      <c r="C5" s="6">
+        <f t="shared" si="0"/>
+        <v>8.4552131065218639</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="5">
+        <v>45627</v>
+      </c>
+      <c r="B6" s="4">
+        <v>166.63</v>
+      </c>
+      <c r="C6" s="6">
+        <f t="shared" si="0"/>
+        <v>4.4440265764071674</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="5">
+        <v>45597</v>
+      </c>
+      <c r="B7" s="4">
+        <v>166.21</v>
+      </c>
+      <c r="C7" s="6">
+        <f t="shared" si="0"/>
+        <v>0.64793508538212308</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="5">
+        <v>45566</v>
+      </c>
+      <c r="B8" s="4">
+        <v>166.51</v>
+      </c>
+      <c r="C8" s="6">
+        <f t="shared" si="0"/>
+        <v>-0.83378000119112006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="5">
+        <v>45536</v>
+      </c>
+      <c r="B9" s="4">
+        <v>161.46</v>
+      </c>
+      <c r="C9" s="6">
+        <f t="shared" si="0"/>
+        <v>-4.2405551272166608</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="5">
+        <v>45505</v>
+      </c>
+      <c r="B10" s="4">
+        <v>164.17</v>
+      </c>
+      <c r="C10" s="6">
+        <f t="shared" si="0"/>
+        <v>1.7982265765486227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="5">
+        <v>45474</v>
+      </c>
+      <c r="B11" s="4">
+        <v>166.14</v>
+      </c>
+      <c r="C11" s="6">
+        <f t="shared" si="0"/>
+        <v>5.2118295231460943</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="5">
+        <v>45444</v>
+      </c>
+      <c r="B12" s="4">
+        <v>166.74</v>
+      </c>
+      <c r="C12" s="6">
+        <f t="shared" si="0"/>
+        <v>8.2235347569286752</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="5">
+        <v>45413</v>
+      </c>
+      <c r="B13" s="4">
+        <v>168.69</v>
+      </c>
+      <c r="C13" s="6">
+        <f t="shared" si="0"/>
+        <v>7.3569655699102565</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="5">
+        <v>45383</v>
+      </c>
+      <c r="B14" s="4">
+        <v>170.4</v>
+      </c>
+      <c r="C14" s="6">
+        <f t="shared" si="0"/>
+        <v>-0.21082220660575413</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="5">
+        <v>45352</v>
+      </c>
+      <c r="B15" s="4">
+        <v>163.08000000000001</v>
+      </c>
+      <c r="C15" s="6">
+        <f t="shared" si="0"/>
+        <v>-3.1016042780748654</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="5">
+        <v>45323</v>
+      </c>
+      <c r="B16" s="4">
+        <v>158.63</v>
+      </c>
+      <c r="C16" s="6">
+        <f t="shared" si="0"/>
+        <v>-9.1258020164986302</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="5">
+        <v>45292</v>
+      </c>
+      <c r="B17" s="4">
+        <v>159.31</v>
+      </c>
+      <c r="C17" s="6">
+        <f t="shared" si="0"/>
+        <v>-12.773762593079274</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="5">
+        <v>45261</v>
+      </c>
+      <c r="B18" s="4">
+        <v>159.54</v>
+      </c>
+      <c r="C18" s="6">
+        <f t="shared" si="0"/>
+        <v>-17.910985335734498</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="5">
+        <v>45231</v>
+      </c>
+      <c r="B19" s="4">
+        <v>165.14</v>
+      </c>
+      <c r="C19" s="6">
+        <f t="shared" si="0"/>
+        <v>-14.025406080799685</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="5">
+        <v>45200</v>
+      </c>
+      <c r="B20" s="4">
+        <v>167.91</v>
+      </c>
+      <c r="C20" s="6">
+        <f t="shared" si="0"/>
+        <v>-12.258974760934315</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="5">
+        <v>45170</v>
+      </c>
+      <c r="B21" s="4">
+        <v>168.61</v>
+      </c>
+      <c r="C21" s="6">
+        <f t="shared" si="0"/>
+        <v>-23.366057631124438</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="5">
+        <v>45139</v>
+      </c>
+      <c r="B22" s="4">
+        <v>161.27000000000001</v>
+      </c>
+      <c r="C22" s="6">
+        <f t="shared" si="0"/>
+        <v>-33.337466931216916</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="5">
+        <v>45108</v>
+      </c>
+      <c r="B23" s="4">
+        <v>157.91</v>
+      </c>
+      <c r="C23" s="6">
+        <f t="shared" si="0"/>
+        <v>-31.17890607975594</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="5">
+        <v>45078</v>
+      </c>
+      <c r="B24" s="4">
+        <v>154.07</v>
+      </c>
+      <c r="C24" s="6">
+        <f t="shared" si="0"/>
+        <v>-33.475820379965462</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="5">
+        <v>45047</v>
+      </c>
+      <c r="B25" s="4">
+        <v>157.13</v>
+      </c>
+      <c r="C25" s="6">
+        <f t="shared" si="0"/>
+        <v>-30.577891667403023</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="5">
+        <v>45017</v>
+      </c>
+      <c r="B26" s="4">
+        <v>170.76</v>
+      </c>
+      <c r="C26" s="6">
+        <f t="shared" si="0"/>
+        <v>-25.193849388881596</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="5">
+        <v>44986</v>
+      </c>
+      <c r="B27" s="4">
+        <v>168.3</v>
+      </c>
+      <c r="C27" s="6">
+        <f t="shared" si="0"/>
+        <v>-29.834069874093217</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="5">
+        <v>44958</v>
+      </c>
+      <c r="B28" s="4">
+        <v>174.56</v>
+      </c>
+      <c r="C28" s="6">
+        <f t="shared" si="0"/>
+        <v>-14.225345191882454</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="5">
+        <v>44927</v>
+      </c>
+      <c r="B29" s="4">
+        <v>182.64</v>
+      </c>
+      <c r="C29" s="6">
+        <f t="shared" si="0"/>
+        <v>-4.9986996098829728</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="5">
+        <v>44896</v>
+      </c>
+      <c r="B30" s="4">
+        <v>194.35</v>
+      </c>
+      <c r="C30" s="6">
+        <f t="shared" si="0"/>
+        <v>4.1030585462531466</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="5">
+        <v>44866</v>
+      </c>
+      <c r="B31" s="4">
+        <v>192.08</v>
+      </c>
+      <c r="C31" s="6">
+        <f t="shared" si="0"/>
+        <v>4.9101534764323551</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="5">
+        <v>44835</v>
+      </c>
+      <c r="B32" s="4">
+        <v>191.37</v>
+      </c>
+      <c r="C32" s="6">
+        <f t="shared" si="0"/>
+        <v>-6.788511749347137E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="5">
+        <v>44805</v>
+      </c>
+      <c r="B33" s="4">
+        <v>220.02</v>
+      </c>
+      <c r="C33" s="6">
+        <f t="shared" si="0"/>
+        <v>28.239202657807326</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="5">
+        <v>44774</v>
+      </c>
+      <c r="B34" s="4">
+        <v>241.92</v>
+      </c>
+      <c r="C34" s="6">
+        <f t="shared" si="0"/>
+        <v>48.253462434121808</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="5">
+        <v>44743</v>
+      </c>
+      <c r="B35" s="4">
+        <v>229.45</v>
+      </c>
+      <c r="C35" s="6">
+        <f t="shared" si="0"/>
+        <v>39.204028392889633</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="5">
+        <v>44713</v>
+      </c>
+      <c r="B36" s="4">
+        <v>231.6</v>
+      </c>
+      <c r="C36" s="6">
+        <f t="shared" si="0"/>
+        <v>44.065687982085102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="5">
+        <v>44682</v>
+      </c>
+      <c r="B37" s="4">
+        <v>226.34</v>
+      </c>
+      <c r="C37" s="6">
+        <f t="shared" si="0"/>
+        <v>45.847026225916629</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="5">
+        <v>44652</v>
+      </c>
+      <c r="B38" s="4">
+        <v>228.27</v>
+      </c>
+      <c r="C38" s="6">
+        <f t="shared" si="0"/>
+        <v>57.167446984301847</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="5">
+        <v>44621</v>
+      </c>
+      <c r="B39" s="4">
+        <v>239.86</v>
+      </c>
+      <c r="C39" s="6">
+        <f t="shared" si="0"/>
+        <v>70.185894706967517</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="5">
+        <v>44593</v>
+      </c>
+      <c r="B40" s="4">
+        <v>203.51</v>
+      </c>
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="5">
+        <v>44562</v>
+      </c>
+      <c r="B41" s="4">
+        <v>192.25</v>
+      </c>
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="5">
+        <v>44531</v>
+      </c>
+      <c r="B42" s="4">
+        <v>186.69</v>
+      </c>
+      <c r="C42" s="2"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="5">
+        <v>44501</v>
+      </c>
+      <c r="B43" s="4">
+        <v>183.09</v>
+      </c>
+      <c r="C43" s="2"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="5">
+        <v>44470</v>
+      </c>
+      <c r="B44" s="4">
+        <v>191.5</v>
+      </c>
+      <c r="C44" s="2"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="5">
+        <v>44440</v>
+      </c>
+      <c r="B45" s="4">
+        <v>171.57</v>
+      </c>
+      <c r="C45" s="2"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="5">
+        <v>44409</v>
+      </c>
+      <c r="B46" s="4">
+        <v>163.18</v>
+      </c>
+      <c r="C46" s="2"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="5">
+        <v>44378</v>
+      </c>
+      <c r="B47" s="4">
+        <v>164.83</v>
+      </c>
+      <c r="C47" s="2"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="5">
+        <v>44348</v>
+      </c>
+      <c r="B48" s="4">
+        <v>160.76</v>
+      </c>
+      <c r="C48" s="2"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="5">
+        <v>44317</v>
+      </c>
+      <c r="B49" s="4">
+        <v>155.19</v>
+      </c>
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="5">
+        <v>44287</v>
+      </c>
+      <c r="B50" s="4">
+        <v>145.24</v>
+      </c>
+      <c r="C50" s="2"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="5">
+        <v>44256</v>
+      </c>
+      <c r="B51" s="4">
+        <v>140.94</v>
+      </c>
+      <c r="C51" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/commodities.xlsx
+++ b/data/commodities.xlsx
@@ -1,76 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ianmc\OneDrive\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D0CB6A2-0FF4-45AA-B68D-3E80677B9C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>% Change vs Last Year</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="174" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -88,38 +55,100 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -407,594 +436,581 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.68359375" customWidth="1"/>
-    <col min="3" max="3" width="23.41796875" customWidth="1"/>
+    <col width="16.68359375" customWidth="1" min="1" max="1"/>
+    <col width="23.41796875" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="5">
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>% Change vs Last Year</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-05-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>160.92</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-4.61</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="n">
         <v>45748</v>
       </c>
-      <c r="B2" s="4">
-        <v>162.72999999999999</v>
-      </c>
-      <c r="C2" s="6">
-        <f>(B2/B14-1)*100</f>
-        <v>-4.5011737089201915</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="5">
+      <c r="B3" s="4" t="n">
+        <v>162.73</v>
+      </c>
+      <c r="C3" s="7" t="n">
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="n">
         <v>45717</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B4" s="4" t="n">
         <v>167.41</v>
       </c>
-      <c r="C3" s="6">
-        <f t="shared" ref="C3:C39" si="0">(B3/B15-1)*100</f>
-        <v>2.6551385822908946</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="5">
+      <c r="C4" s="7" t="n">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n">
         <v>45689</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B5" s="4" t="n">
         <v>172.01</v>
       </c>
-      <c r="C4" s="6">
-        <f t="shared" si="0"/>
-        <v>8.4347223097774648</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="5">
+      <c r="C5" s="7" t="n">
+        <v>8.43</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n">
         <v>45658</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B6" s="4" t="n">
         <v>172.78</v>
       </c>
-      <c r="C5" s="6">
-        <f t="shared" si="0"/>
-        <v>8.4552131065218639</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="5">
+      <c r="C6" s="7" t="n">
+        <v>8.460000000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n">
         <v>45627</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B7" s="4" t="n">
         <v>166.63</v>
       </c>
-      <c r="C6" s="6">
-        <f t="shared" si="0"/>
-        <v>4.4440265764071674</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="5">
+      <c r="C7" s="7" t="n">
+        <v>4.44</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n">
         <v>45597</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B8" s="4" t="n">
         <v>166.21</v>
       </c>
-      <c r="C7" s="6">
-        <f t="shared" si="0"/>
-        <v>0.64793508538212308</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="5">
+      <c r="C8" s="7" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="n">
         <v>45566</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B9" s="4" t="n">
         <v>166.51</v>
       </c>
-      <c r="C8" s="6">
-        <f t="shared" si="0"/>
-        <v>-0.83378000119112006</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="5">
+      <c r="C9" s="7" t="n">
+        <v>-0.83</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="n">
         <v>45536</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B10" s="4" t="n">
         <v>161.46</v>
       </c>
-      <c r="C9" s="6">
-        <f t="shared" si="0"/>
-        <v>-4.2405551272166608</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="5">
+      <c r="C10" s="7" t="n">
+        <v>-4.24</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="n">
         <v>45505</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B11" s="4" t="n">
         <v>164.17</v>
       </c>
-      <c r="C10" s="6">
-        <f t="shared" si="0"/>
-        <v>1.7982265765486227</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="5">
+      <c r="C11" s="7" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="n">
         <v>45474</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B12" s="4" t="n">
         <v>166.14</v>
       </c>
-      <c r="C11" s="6">
-        <f t="shared" si="0"/>
-        <v>5.2118295231460943</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="5">
+      <c r="C12" s="7" t="n">
+        <v>5.21</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="n">
         <v>45444</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B13" s="4" t="n">
         <v>166.74</v>
       </c>
-      <c r="C12" s="6">
-        <f t="shared" si="0"/>
-        <v>8.2235347569286752</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="5">
+      <c r="C13" s="7" t="n">
+        <v>8.220000000000001</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="n">
         <v>45413</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B14" s="4" t="n">
         <v>168.69</v>
       </c>
-      <c r="C13" s="6">
-        <f t="shared" si="0"/>
-        <v>7.3569655699102565</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="5">
+      <c r="C14" s="7" t="n">
+        <v>7.36</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="n">
         <v>45383</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B15" s="4" t="n">
         <v>170.4</v>
       </c>
-      <c r="C14" s="6">
-        <f t="shared" si="0"/>
-        <v>-0.21082220660575413</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="5">
+      <c r="C15" s="7" t="n">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="n">
         <v>45352</v>
       </c>
-      <c r="B15" s="4">
-        <v>163.08000000000001</v>
-      </c>
-      <c r="C15" s="6">
-        <f t="shared" si="0"/>
-        <v>-3.1016042780748654</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="5">
+      <c r="B16" s="4" t="n">
+        <v>163.08</v>
+      </c>
+      <c r="C16" s="7" t="n">
+        <v>-3.1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="n">
         <v>45323</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B17" s="4" t="n">
         <v>158.63</v>
       </c>
-      <c r="C16" s="6">
-        <f t="shared" si="0"/>
-        <v>-9.1258020164986302</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="5">
+      <c r="C17" s="7" t="n">
+        <v>-9.130000000000001</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="n">
         <v>45292</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B18" s="4" t="n">
         <v>159.31</v>
       </c>
-      <c r="C17" s="6">
-        <f t="shared" si="0"/>
-        <v>-12.773762593079274</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="5">
+      <c r="C18" s="7" t="n">
+        <v>-12.77</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="n">
         <v>45261</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B19" s="4" t="n">
         <v>159.54</v>
       </c>
-      <c r="C18" s="6">
-        <f t="shared" si="0"/>
-        <v>-17.910985335734498</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="5">
+      <c r="C19" s="7" t="n">
+        <v>-17.91</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="n">
         <v>45231</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B20" s="4" t="n">
         <v>165.14</v>
       </c>
-      <c r="C19" s="6">
-        <f t="shared" si="0"/>
-        <v>-14.025406080799685</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="5">
+      <c r="C20" s="7" t="n">
+        <v>-14.03</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="n">
         <v>45200</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B21" s="4" t="n">
         <v>167.91</v>
       </c>
-      <c r="C20" s="6">
-        <f t="shared" si="0"/>
-        <v>-12.258974760934315</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="5">
+      <c r="C21" s="7" t="n">
+        <v>-12.26</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="n">
         <v>45170</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B22" s="4" t="n">
         <v>168.61</v>
       </c>
-      <c r="C21" s="6">
-        <f t="shared" si="0"/>
-        <v>-23.366057631124438</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="5">
+      <c r="C22" s="7" t="n">
+        <v>-23.37</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="n">
         <v>45139</v>
       </c>
-      <c r="B22" s="4">
-        <v>161.27000000000001</v>
-      </c>
-      <c r="C22" s="6">
-        <f t="shared" si="0"/>
-        <v>-33.337466931216916</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="5">
+      <c r="B23" s="4" t="n">
+        <v>161.27</v>
+      </c>
+      <c r="C23" s="7" t="n">
+        <v>-33.34</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="n">
         <v>45108</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B24" s="4" t="n">
         <v>157.91</v>
       </c>
-      <c r="C23" s="6">
-        <f t="shared" si="0"/>
-        <v>-31.17890607975594</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="5">
+      <c r="C24" s="7" t="n">
+        <v>-31.18</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="n">
         <v>45078</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B25" s="4" t="n">
         <v>154.07</v>
       </c>
-      <c r="C24" s="6">
-        <f t="shared" si="0"/>
-        <v>-33.475820379965462</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="5">
+      <c r="C25" s="7" t="n">
+        <v>-33.48</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="n">
         <v>45047</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B26" s="4" t="n">
         <v>157.13</v>
       </c>
-      <c r="C25" s="6">
-        <f t="shared" si="0"/>
-        <v>-30.577891667403023</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="5">
+      <c r="C26" s="7" t="n">
+        <v>-30.58</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="n">
         <v>45017</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B27" s="4" t="n">
         <v>170.76</v>
       </c>
-      <c r="C26" s="6">
-        <f t="shared" si="0"/>
-        <v>-25.193849388881596</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="5">
+      <c r="C27" s="7" t="n">
+        <v>-25.19</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="n">
         <v>44986</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B28" s="4" t="n">
         <v>168.3</v>
       </c>
-      <c r="C27" s="6">
-        <f t="shared" si="0"/>
-        <v>-29.834069874093217</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="5">
+      <c r="C28" s="7" t="n">
+        <v>-29.83</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="n">
         <v>44958</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B29" s="4" t="n">
         <v>174.56</v>
       </c>
-      <c r="C28" s="6">
-        <f t="shared" si="0"/>
-        <v>-14.225345191882454</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="5">
+      <c r="C29" s="7" t="n">
+        <v>-14.23</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="5" t="n">
         <v>44927</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B30" s="4" t="n">
         <v>182.64</v>
       </c>
-      <c r="C29" s="6">
-        <f t="shared" si="0"/>
-        <v>-4.9986996098829728</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="5">
+      <c r="C30" s="7" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="5" t="n">
         <v>44896</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B31" s="4" t="n">
         <v>194.35</v>
       </c>
-      <c r="C30" s="6">
-        <f t="shared" si="0"/>
-        <v>4.1030585462531466</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="5">
+      <c r="C31" s="7" t="n">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="5" t="n">
         <v>44866</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B32" s="4" t="n">
         <v>192.08</v>
       </c>
-      <c r="C31" s="6">
-        <f t="shared" si="0"/>
-        <v>4.9101534764323551</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="5">
+      <c r="C32" s="7" t="n">
+        <v>4.91</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="5" t="n">
         <v>44835</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B33" s="4" t="n">
         <v>191.37</v>
       </c>
-      <c r="C32" s="6">
-        <f t="shared" si="0"/>
-        <v>-6.788511749347137E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="5">
+      <c r="C33" s="7" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="5" t="n">
         <v>44805</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B34" s="4" t="n">
         <v>220.02</v>
       </c>
-      <c r="C33" s="6">
-        <f t="shared" si="0"/>
-        <v>28.239202657807326</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="5">
+      <c r="C34" s="7" t="n">
+        <v>28.24</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="5" t="n">
         <v>44774</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B35" s="4" t="n">
         <v>241.92</v>
       </c>
-      <c r="C34" s="6">
-        <f t="shared" si="0"/>
-        <v>48.253462434121808</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="5">
+      <c r="C35" s="7" t="n">
+        <v>48.25</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="5" t="n">
         <v>44743</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B36" s="4" t="n">
         <v>229.45</v>
       </c>
-      <c r="C35" s="6">
-        <f t="shared" si="0"/>
-        <v>39.204028392889633</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="5">
+      <c r="C36" s="7" t="n">
+        <v>39.2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="5" t="n">
         <v>44713</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B37" s="4" t="n">
         <v>231.6</v>
       </c>
-      <c r="C36" s="6">
-        <f t="shared" si="0"/>
-        <v>44.065687982085102</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="5">
+      <c r="C37" s="7" t="n">
+        <v>44.07</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="5" t="n">
         <v>44682</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B38" s="4" t="n">
         <v>226.34</v>
       </c>
-      <c r="C37" s="6">
-        <f t="shared" si="0"/>
-        <v>45.847026225916629</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="5">
+      <c r="C38" s="7" t="n">
+        <v>45.85</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="5" t="n">
         <v>44652</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B39" s="4" t="n">
         <v>228.27</v>
       </c>
-      <c r="C38" s="6">
-        <f t="shared" si="0"/>
-        <v>57.167446984301847</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="5">
+      <c r="C39" s="7" t="n">
+        <v>57.17</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="5" t="n">
         <v>44621</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B40" s="4" t="n">
         <v>239.86</v>
       </c>
-      <c r="C39" s="6">
-        <f t="shared" si="0"/>
-        <v>70.185894706967517</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="5">
+      <c r="C40" s="7" t="n">
+        <v>70.19</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="5" t="n">
         <v>44593</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B41" s="4" t="n">
         <v>203.51</v>
       </c>
-      <c r="C40" s="2"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="5">
+      <c r="C41" s="2" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="5" t="n">
         <v>44562</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B42" s="4" t="n">
         <v>192.25</v>
       </c>
-      <c r="C41" s="2"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="5">
+      <c r="C42" s="2" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="5" t="n">
         <v>44531</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B43" s="4" t="n">
         <v>186.69</v>
       </c>
-      <c r="C42" s="2"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="5">
+      <c r="C43" s="2" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="5" t="n">
         <v>44501</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B44" s="4" t="n">
         <v>183.09</v>
       </c>
-      <c r="C43" s="2"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="5">
+      <c r="C44" s="2" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="5" t="n">
         <v>44470</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B45" s="4" t="n">
         <v>191.5</v>
       </c>
-      <c r="C44" s="2"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="5">
+      <c r="C45" s="2" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="5" t="n">
         <v>44440</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B46" s="4" t="n">
         <v>171.57</v>
       </c>
-      <c r="C45" s="2"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="5">
+      <c r="C46" s="2" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="5" t="n">
         <v>44409</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B47" s="4" t="n">
         <v>163.18</v>
       </c>
-      <c r="C46" s="2"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="5">
+      <c r="C47" s="2" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="5" t="n">
         <v>44378</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B48" s="4" t="n">
         <v>164.83</v>
       </c>
-      <c r="C47" s="2"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="5">
+      <c r="C48" s="2" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="5" t="n">
         <v>44348</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B49" s="4" t="n">
         <v>160.76</v>
       </c>
-      <c r="C48" s="2"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="5">
+      <c r="C49" s="2" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="5" t="n">
         <v>44317</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B50" s="4" t="n">
         <v>155.19</v>
       </c>
-      <c r="C49" s="2"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="5">
+      <c r="C50" s="2" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="5" t="n">
         <v>44287</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B51" s="4" t="n">
         <v>145.24</v>
       </c>
-      <c r="C50" s="2"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="5">
+      <c r="C51" s="2" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="5" t="n">
         <v>44256</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B52" s="4" t="n">
         <v>140.94</v>
       </c>
-      <c r="C51" s="2"/>
+      <c r="C52" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/commodities.xlsx
+++ b/data/commodities.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,541 +473,554 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>165.79</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.57</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>2025-05-01</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B3" t="n">
         <v>160.92</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>-4.61</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="n">
-        <v>45748</v>
-      </c>
-      <c r="B3" s="4" t="n">
-        <v>162.73</v>
-      </c>
-      <c r="C3" s="7" t="n">
-        <v>-4.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
-        <v>45717</v>
+        <v>45748</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>167.41</v>
+        <v>162.73</v>
       </c>
       <c r="C4" s="7" t="n">
-        <v>2.66</v>
+        <v>-4.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
-        <v>45689</v>
+        <v>45717</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>172.01</v>
+        <v>167.41</v>
       </c>
       <c r="C5" s="7" t="n">
-        <v>8.43</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
-        <v>45658</v>
+        <v>45689</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>172.78</v>
+        <v>172.01</v>
       </c>
       <c r="C6" s="7" t="n">
-        <v>8.460000000000001</v>
+        <v>8.43</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
-        <v>45627</v>
+        <v>45658</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>166.63</v>
+        <v>172.78</v>
       </c>
       <c r="C7" s="7" t="n">
-        <v>4.44</v>
+        <v>8.460000000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>166.21</v>
+        <v>166.63</v>
       </c>
       <c r="C8" s="7" t="n">
-        <v>0.65</v>
+        <v>4.44</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>166.51</v>
+        <v>166.21</v>
       </c>
       <c r="C9" s="7" t="n">
-        <v>-0.83</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>161.46</v>
+        <v>166.51</v>
       </c>
       <c r="C10" s="7" t="n">
-        <v>-4.24</v>
+        <v>-0.83</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B11" s="4" t="n">
-        <v>164.17</v>
+        <v>161.46</v>
       </c>
       <c r="C11" s="7" t="n">
-        <v>1.8</v>
+        <v>-4.24</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B12" s="4" t="n">
-        <v>166.14</v>
+        <v>164.17</v>
       </c>
       <c r="C12" s="7" t="n">
-        <v>5.21</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="B13" s="4" t="n">
-        <v>166.74</v>
+        <v>166.14</v>
       </c>
       <c r="C13" s="7" t="n">
-        <v>8.220000000000001</v>
+        <v>5.21</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B14" s="4" t="n">
-        <v>168.69</v>
+        <v>166.74</v>
       </c>
       <c r="C14" s="7" t="n">
-        <v>7.36</v>
+        <v>8.220000000000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B15" s="4" t="n">
-        <v>170.4</v>
+        <v>168.69</v>
       </c>
       <c r="C15" s="7" t="n">
-        <v>-0.21</v>
+        <v>7.36</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B16" s="4" t="n">
-        <v>163.08</v>
+        <v>170.4</v>
       </c>
       <c r="C16" s="7" t="n">
-        <v>-3.1</v>
+        <v>-0.21</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B17" s="4" t="n">
-        <v>158.63</v>
+        <v>163.08</v>
       </c>
       <c r="C17" s="7" t="n">
-        <v>-9.130000000000001</v>
+        <v>-3.1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B18" s="4" t="n">
-        <v>159.31</v>
+        <v>158.63</v>
       </c>
       <c r="C18" s="7" t="n">
-        <v>-12.77</v>
+        <v>-9.130000000000001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B19" s="4" t="n">
-        <v>159.54</v>
+        <v>159.31</v>
       </c>
       <c r="C19" s="7" t="n">
-        <v>-17.91</v>
+        <v>-12.77</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B20" s="4" t="n">
-        <v>165.14</v>
+        <v>159.54</v>
       </c>
       <c r="C20" s="7" t="n">
-        <v>-14.03</v>
+        <v>-17.91</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B21" s="4" t="n">
-        <v>167.91</v>
+        <v>165.14</v>
       </c>
       <c r="C21" s="7" t="n">
-        <v>-12.26</v>
+        <v>-14.03</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="5" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B22" s="4" t="n">
-        <v>168.61</v>
+        <v>167.91</v>
       </c>
       <c r="C22" s="7" t="n">
-        <v>-23.37</v>
+        <v>-12.26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B23" s="4" t="n">
-        <v>161.27</v>
+        <v>168.61</v>
       </c>
       <c r="C23" s="7" t="n">
-        <v>-33.34</v>
+        <v>-23.37</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B24" s="4" t="n">
-        <v>157.91</v>
+        <v>161.27</v>
       </c>
       <c r="C24" s="7" t="n">
-        <v>-31.18</v>
+        <v>-33.34</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="5" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B25" s="4" t="n">
-        <v>154.07</v>
+        <v>157.91</v>
       </c>
       <c r="C25" s="7" t="n">
-        <v>-33.48</v>
+        <v>-31.18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="5" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B26" s="4" t="n">
-        <v>157.13</v>
+        <v>154.07</v>
       </c>
       <c r="C26" s="7" t="n">
-        <v>-30.58</v>
+        <v>-33.48</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B27" s="4" t="n">
-        <v>170.76</v>
+        <v>157.13</v>
       </c>
       <c r="C27" s="7" t="n">
-        <v>-25.19</v>
+        <v>-30.58</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="5" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B28" s="4" t="n">
-        <v>168.3</v>
+        <v>170.76</v>
       </c>
       <c r="C28" s="7" t="n">
-        <v>-29.83</v>
+        <v>-25.19</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B29" s="4" t="n">
-        <v>174.56</v>
+        <v>168.3</v>
       </c>
       <c r="C29" s="7" t="n">
-        <v>-14.23</v>
+        <v>-29.83</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="5" t="n">
-        <v>44927</v>
+        <v>44958</v>
       </c>
       <c r="B30" s="4" t="n">
-        <v>182.64</v>
+        <v>174.56</v>
       </c>
       <c r="C30" s="7" t="n">
-        <v>-5</v>
+        <v>-14.23</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="5" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B31" s="4" t="n">
-        <v>194.35</v>
+        <v>182.64</v>
       </c>
       <c r="C31" s="7" t="n">
-        <v>4.1</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="5" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B32" s="4" t="n">
-        <v>192.08</v>
+        <v>194.35</v>
       </c>
       <c r="C32" s="7" t="n">
-        <v>4.91</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="5" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B33" s="4" t="n">
-        <v>191.37</v>
+        <v>192.08</v>
       </c>
       <c r="C33" s="7" t="n">
-        <v>-0.07000000000000001</v>
+        <v>4.91</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="5" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B34" s="4" t="n">
-        <v>220.02</v>
+        <v>191.37</v>
       </c>
       <c r="C34" s="7" t="n">
-        <v>28.24</v>
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="5" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B35" s="4" t="n">
-        <v>241.92</v>
+        <v>220.02</v>
       </c>
       <c r="C35" s="7" t="n">
-        <v>48.25</v>
+        <v>28.24</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="5" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B36" s="4" t="n">
-        <v>229.45</v>
+        <v>241.92</v>
       </c>
       <c r="C36" s="7" t="n">
-        <v>39.2</v>
+        <v>48.25</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="5" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B37" s="4" t="n">
-        <v>231.6</v>
+        <v>229.45</v>
       </c>
       <c r="C37" s="7" t="n">
-        <v>44.07</v>
+        <v>39.2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="5" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B38" s="4" t="n">
-        <v>226.34</v>
+        <v>231.6</v>
       </c>
       <c r="C38" s="7" t="n">
-        <v>45.85</v>
+        <v>44.07</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="5" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B39" s="4" t="n">
-        <v>228.27</v>
+        <v>226.34</v>
       </c>
       <c r="C39" s="7" t="n">
-        <v>57.17</v>
+        <v>45.85</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="5" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B40" s="4" t="n">
-        <v>239.86</v>
+        <v>228.27</v>
       </c>
       <c r="C40" s="7" t="n">
-        <v>70.19</v>
+        <v>57.17</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="5" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B41" s="4" t="n">
-        <v>203.51</v>
-      </c>
-      <c r="C41" s="2" t="inlineStr"/>
+        <v>239.86</v>
+      </c>
+      <c r="C41" s="7" t="n">
+        <v>70.19</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="5" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B42" s="4" t="n">
-        <v>192.25</v>
+        <v>203.51</v>
       </c>
       <c r="C42" s="2" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="5" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B43" s="4" t="n">
-        <v>186.69</v>
+        <v>192.25</v>
       </c>
       <c r="C43" s="2" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="5" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B44" s="4" t="n">
-        <v>183.09</v>
+        <v>186.69</v>
       </c>
       <c r="C44" s="2" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="5" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B45" s="4" t="n">
-        <v>191.5</v>
+        <v>183.09</v>
       </c>
       <c r="C45" s="2" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="5" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B46" s="4" t="n">
-        <v>171.57</v>
+        <v>191.5</v>
       </c>
       <c r="C46" s="2" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="5" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B47" s="4" t="n">
-        <v>163.18</v>
+        <v>171.57</v>
       </c>
       <c r="C47" s="2" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="5" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B48" s="4" t="n">
-        <v>164.83</v>
+        <v>163.18</v>
       </c>
       <c r="C48" s="2" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="5" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B49" s="4" t="n">
-        <v>160.76</v>
+        <v>164.83</v>
       </c>
       <c r="C49" s="2" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="5" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B50" s="4" t="n">
-        <v>155.19</v>
+        <v>160.76</v>
       </c>
       <c r="C50" s="2" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="5" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B51" s="4" t="n">
-        <v>145.24</v>
+        <v>155.19</v>
       </c>
       <c r="C51" s="2" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="5" t="n">
+        <v>44287</v>
+      </c>
+      <c r="B52" s="4" t="n">
+        <v>145.24</v>
+      </c>
+      <c r="C52" s="2" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="5" t="n">
         <v>44256</v>
       </c>
-      <c r="B52" s="4" t="n">
+      <c r="B53" s="4" t="n">
         <v>140.94</v>
       </c>
-      <c r="C52" s="2" t="inlineStr"/>
+      <c r="C53" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/commodities.xlsx
+++ b/data/commodities.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,554 +473,567 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>165.79</v>
+        <v>166.83</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.57</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>165.79</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>2025-05-01</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B4" t="n">
         <v>160.92</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>-4.61</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="5" t="n">
-        <v>45748</v>
-      </c>
-      <c r="B4" s="4" t="n">
-        <v>162.73</v>
-      </c>
-      <c r="C4" s="7" t="n">
-        <v>-4.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
-        <v>45717</v>
+        <v>45748</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>167.41</v>
+        <v>162.73</v>
       </c>
       <c r="C5" s="7" t="n">
-        <v>2.66</v>
+        <v>-4.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
-        <v>45689</v>
+        <v>45717</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>172.01</v>
+        <v>167.41</v>
       </c>
       <c r="C6" s="7" t="n">
-        <v>8.43</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
-        <v>45658</v>
+        <v>45689</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>172.78</v>
+        <v>172.01</v>
       </c>
       <c r="C7" s="7" t="n">
-        <v>8.460000000000001</v>
+        <v>8.43</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
-        <v>45627</v>
+        <v>45658</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>166.63</v>
+        <v>172.78</v>
       </c>
       <c r="C8" s="7" t="n">
-        <v>4.44</v>
+        <v>8.460000000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>166.21</v>
+        <v>166.63</v>
       </c>
       <c r="C9" s="7" t="n">
-        <v>0.65</v>
+        <v>4.44</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>166.51</v>
+        <v>166.21</v>
       </c>
       <c r="C10" s="7" t="n">
-        <v>-0.83</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B11" s="4" t="n">
-        <v>161.46</v>
+        <v>166.51</v>
       </c>
       <c r="C11" s="7" t="n">
-        <v>-4.24</v>
+        <v>-0.83</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B12" s="4" t="n">
-        <v>164.17</v>
+        <v>161.46</v>
       </c>
       <c r="C12" s="7" t="n">
-        <v>1.8</v>
+        <v>-4.24</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B13" s="4" t="n">
-        <v>166.14</v>
+        <v>164.17</v>
       </c>
       <c r="C13" s="7" t="n">
-        <v>5.21</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="B14" s="4" t="n">
-        <v>166.74</v>
+        <v>166.14</v>
       </c>
       <c r="C14" s="7" t="n">
-        <v>8.220000000000001</v>
+        <v>5.21</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B15" s="4" t="n">
-        <v>168.69</v>
+        <v>166.74</v>
       </c>
       <c r="C15" s="7" t="n">
-        <v>7.36</v>
+        <v>8.220000000000001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B16" s="4" t="n">
-        <v>170.4</v>
+        <v>168.69</v>
       </c>
       <c r="C16" s="7" t="n">
-        <v>-0.21</v>
+        <v>7.36</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B17" s="4" t="n">
-        <v>163.08</v>
+        <v>170.4</v>
       </c>
       <c r="C17" s="7" t="n">
-        <v>-3.1</v>
+        <v>-0.21</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B18" s="4" t="n">
-        <v>158.63</v>
+        <v>163.08</v>
       </c>
       <c r="C18" s="7" t="n">
-        <v>-9.130000000000001</v>
+        <v>-3.1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B19" s="4" t="n">
-        <v>159.31</v>
+        <v>158.63</v>
       </c>
       <c r="C19" s="7" t="n">
-        <v>-12.77</v>
+        <v>-9.130000000000001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B20" s="4" t="n">
-        <v>159.54</v>
+        <v>159.31</v>
       </c>
       <c r="C20" s="7" t="n">
-        <v>-17.91</v>
+        <v>-12.77</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B21" s="4" t="n">
-        <v>165.14</v>
+        <v>159.54</v>
       </c>
       <c r="C21" s="7" t="n">
-        <v>-14.03</v>
+        <v>-17.91</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="5" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B22" s="4" t="n">
-        <v>167.91</v>
+        <v>165.14</v>
       </c>
       <c r="C22" s="7" t="n">
-        <v>-12.26</v>
+        <v>-14.03</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B23" s="4" t="n">
-        <v>168.61</v>
+        <v>167.91</v>
       </c>
       <c r="C23" s="7" t="n">
-        <v>-23.37</v>
+        <v>-12.26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B24" s="4" t="n">
-        <v>161.27</v>
+        <v>168.61</v>
       </c>
       <c r="C24" s="7" t="n">
-        <v>-33.34</v>
+        <v>-23.37</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="5" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B25" s="4" t="n">
-        <v>157.91</v>
+        <v>161.27</v>
       </c>
       <c r="C25" s="7" t="n">
-        <v>-31.18</v>
+        <v>-33.34</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="5" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B26" s="4" t="n">
-        <v>154.07</v>
+        <v>157.91</v>
       </c>
       <c r="C26" s="7" t="n">
-        <v>-33.48</v>
+        <v>-31.18</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B27" s="4" t="n">
-        <v>157.13</v>
+        <v>154.07</v>
       </c>
       <c r="C27" s="7" t="n">
-        <v>-30.58</v>
+        <v>-33.48</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="5" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B28" s="4" t="n">
-        <v>170.76</v>
+        <v>157.13</v>
       </c>
       <c r="C28" s="7" t="n">
-        <v>-25.19</v>
+        <v>-30.58</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B29" s="4" t="n">
-        <v>168.3</v>
+        <v>170.76</v>
       </c>
       <c r="C29" s="7" t="n">
-        <v>-29.83</v>
+        <v>-25.19</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="5" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B30" s="4" t="n">
-        <v>174.56</v>
+        <v>168.3</v>
       </c>
       <c r="C30" s="7" t="n">
-        <v>-14.23</v>
+        <v>-29.83</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="5" t="n">
-        <v>44927</v>
+        <v>44958</v>
       </c>
       <c r="B31" s="4" t="n">
-        <v>182.64</v>
+        <v>174.56</v>
       </c>
       <c r="C31" s="7" t="n">
-        <v>-5</v>
+        <v>-14.23</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="5" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B32" s="4" t="n">
-        <v>194.35</v>
+        <v>182.64</v>
       </c>
       <c r="C32" s="7" t="n">
-        <v>4.1</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="5" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B33" s="4" t="n">
-        <v>192.08</v>
+        <v>194.35</v>
       </c>
       <c r="C33" s="7" t="n">
-        <v>4.91</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="5" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B34" s="4" t="n">
-        <v>191.37</v>
+        <v>192.08</v>
       </c>
       <c r="C34" s="7" t="n">
-        <v>-0.07000000000000001</v>
+        <v>4.91</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="5" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B35" s="4" t="n">
-        <v>220.02</v>
+        <v>191.37</v>
       </c>
       <c r="C35" s="7" t="n">
-        <v>28.24</v>
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="5" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B36" s="4" t="n">
-        <v>241.92</v>
+        <v>220.02</v>
       </c>
       <c r="C36" s="7" t="n">
-        <v>48.25</v>
+        <v>28.24</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="5" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B37" s="4" t="n">
-        <v>229.45</v>
+        <v>241.92</v>
       </c>
       <c r="C37" s="7" t="n">
-        <v>39.2</v>
+        <v>48.25</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="5" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B38" s="4" t="n">
-        <v>231.6</v>
+        <v>229.45</v>
       </c>
       <c r="C38" s="7" t="n">
-        <v>44.07</v>
+        <v>39.2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="5" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B39" s="4" t="n">
-        <v>226.34</v>
+        <v>231.6</v>
       </c>
       <c r="C39" s="7" t="n">
-        <v>45.85</v>
+        <v>44.07</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="5" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B40" s="4" t="n">
-        <v>228.27</v>
+        <v>226.34</v>
       </c>
       <c r="C40" s="7" t="n">
-        <v>57.17</v>
+        <v>45.85</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="5" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B41" s="4" t="n">
-        <v>239.86</v>
+        <v>228.27</v>
       </c>
       <c r="C41" s="7" t="n">
-        <v>70.19</v>
+        <v>57.17</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="5" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B42" s="4" t="n">
-        <v>203.51</v>
-      </c>
-      <c r="C42" s="2" t="inlineStr"/>
+        <v>239.86</v>
+      </c>
+      <c r="C42" s="7" t="n">
+        <v>70.19</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="5" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B43" s="4" t="n">
-        <v>192.25</v>
+        <v>203.51</v>
       </c>
       <c r="C43" s="2" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="5" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B44" s="4" t="n">
-        <v>186.69</v>
+        <v>192.25</v>
       </c>
       <c r="C44" s="2" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="5" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B45" s="4" t="n">
-        <v>183.09</v>
+        <v>186.69</v>
       </c>
       <c r="C45" s="2" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="5" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B46" s="4" t="n">
-        <v>191.5</v>
+        <v>183.09</v>
       </c>
       <c r="C46" s="2" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="5" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B47" s="4" t="n">
-        <v>171.57</v>
+        <v>191.5</v>
       </c>
       <c r="C47" s="2" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="5" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B48" s="4" t="n">
-        <v>163.18</v>
+        <v>171.57</v>
       </c>
       <c r="C48" s="2" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="5" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B49" s="4" t="n">
-        <v>164.83</v>
+        <v>163.18</v>
       </c>
       <c r="C49" s="2" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="5" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B50" s="4" t="n">
-        <v>160.76</v>
+        <v>164.83</v>
       </c>
       <c r="C50" s="2" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="5" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B51" s="4" t="n">
-        <v>155.19</v>
+        <v>160.76</v>
       </c>
       <c r="C51" s="2" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="5" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B52" s="4" t="n">
-        <v>145.24</v>
+        <v>155.19</v>
       </c>
       <c r="C52" s="2" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="5" t="n">
+        <v>44287</v>
+      </c>
+      <c r="B53" s="4" t="n">
+        <v>145.24</v>
+      </c>
+      <c r="C53" s="2" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="5" t="n">
         <v>44256</v>
       </c>
-      <c r="B53" s="4" t="n">
+      <c r="B54" s="4" t="n">
         <v>140.94</v>
       </c>
-      <c r="C53" s="2" t="inlineStr"/>
+      <c r="C54" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
